--- a/schemas/TestSchema.xlsx
+++ b/schemas/TestSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="345" windowWidth="19815" windowHeight="11175" tabRatio="730" activeTab="6"/>
+    <workbookView xWindow="1350" yWindow="345" windowWidth="19815" windowHeight="11175" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="DataCharacter" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>DataAbility</t>
   </si>
   <si>
-    <t>cstr</t>
-  </si>
-  <si>
     <t>uint</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
   </si>
   <si>
     <t>[{"str":"11"}]</t>
-  </si>
-  <si>
-    <t>["1","2","3"]</t>
   </si>
   <si>
     <t>HUMAN_MALE</t>
@@ -257,9 +251,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>'"\;,./&lt;&gt;</t>
-  </si>
-  <si>
     <t>specialCode</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -297,6 +288,18 @@
   </si>
   <si>
     <t>알 수 없는 오류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"\;,./&lt;&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>["1","2","';\"3"]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -941,8 +944,36 @@
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1240,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1250,7 +1281,7 @@
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1258,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1276,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1296,49 +1327,49 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1346,28 +1377,28 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
-        <v>78</v>
+      <c r="H6" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1375,10 +1406,10 @@
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1386,10 +1417,10 @@
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1397,10 +1428,10 @@
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1408,10 +1439,10 @@
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1419,10 +1450,10 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -1430,10 +1461,10 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -1441,10 +1472,10 @@
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -1452,10 +1483,10 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1463,10 +1494,10 @@
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -1474,10 +1505,10 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>13</v>
@@ -1485,10 +1516,10 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -1496,26 +1527,26 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1537,24 +1568,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1573,23 +1604,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1608,24 +1639,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1648,28 +1679,28 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1677,7 +1708,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1685,7 +1716,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1693,7 +1724,7 @@
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1701,7 +1732,7 @@
     </row>
     <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1709,7 +1740,7 @@
     </row>
     <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1717,7 +1748,7 @@
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1725,7 +1756,7 @@
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1733,7 +1764,7 @@
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1761,51 +1792,51 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1830,15 +1861,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1846,12 +1877,12 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1859,7 +1890,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1867,7 +1898,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1875,7 +1906,7 @@
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1883,7 +1914,7 @@
     </row>
     <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1891,7 +1922,7 @@
     </row>
     <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1899,7 +1930,7 @@
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1907,7 +1938,7 @@
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1915,7 +1946,7 @@
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1923,7 +1954,7 @@
     </row>
     <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1931,7 +1962,7 @@
     </row>
     <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1939,7 +1970,7 @@
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -1947,7 +1978,7 @@
     </row>
     <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -1955,7 +1986,7 @@
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -1963,7 +1994,7 @@
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -1971,7 +2002,7 @@
     </row>
     <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -1979,7 +2010,7 @@
     </row>
     <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -1987,7 +2018,7 @@
     </row>
     <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>17</v>

--- a/schemas/TestSchema.xlsx
+++ b/schemas/TestSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
   <si>
     <t>unit_type</t>
   </si>
@@ -300,6 +300,38 @@
   </si>
   <si>
     <t>["1","2","';\"3"]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1269,283 +1301,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>86</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>88</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
         <v>78</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
     </row>

--- a/schemas/TestSchema.xlsx
+++ b/schemas/TestSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>unit_type</t>
   </si>
@@ -190,9 +190,6 @@
     <t>pos</t>
   </si>
   <si>
-    <t>hid</t>
-  </si>
-  <si>
     <t>VECTOR3</t>
   </si>
   <si>
@@ -275,10 +272,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>lstr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>TEXT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -291,10 +284,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>str</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>"\;,./&lt;&gt;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -332,6 +321,34 @@
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(1024)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIT(32)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_PLAYER(1024)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstr(512)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1301,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1315,17 +1332,18 @@
     <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1343,15 +1361,18 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1366,16 +1387,19 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>10</v>
       </c>
@@ -1388,13 +1412,16 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1411,39 +1438,39 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1452,12 +1479,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1466,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1477,12 +1504,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1491,12 +1518,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1505,12 +1532,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1519,7 +1546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1530,12 +1557,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -1544,12 +1571,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1558,7 +1585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1664,7 +1691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1678,10 +1707,10 @@
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1705,24 +1734,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1745,10 +1774,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1756,7 +1785,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1766,7 +1795,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1774,7 +1803,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1782,7 +1811,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1790,7 +1819,7 @@
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1798,7 +1827,7 @@
     </row>
     <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1806,7 +1835,7 @@
     </row>
     <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1814,7 +1843,7 @@
     </row>
     <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1822,7 +1851,7 @@
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1830,7 +1859,7 @@
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1847,7 +1876,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1858,13 +1887,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1872,10 +1901,10 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1885,24 +1914,24 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1927,10 +1956,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1948,7 +1977,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/schemas/TestSchema.xlsx
+++ b/schemas/TestSchema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
   <si>
     <t>unit_type</t>
   </si>
@@ -349,6 +349,10 @@
   </si>
   <si>
     <t>lstr(512)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment Field</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1318,327 +1322,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>85</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
         <v>77</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>91</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>91</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>49</v>
       </c>
     </row>
